--- a/medicine/Enfance/Fanny_Joly/Fanny_Joly.xlsx
+++ b/medicine/Enfance/Fanny_Joly/Fanny_Joly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fanny Joly, née en 1954 à Paris, est une romancière française.
-Elle publie son premier livre en 1984, alors qu'elle écrit déjà les sketches des spectacles de sa sœur Sylvie Joly[1].
-Elle a publié plus de 400 ouvrages[2], pour tous les âges. Ses livres sont traduits en 23 langues[3]. Trois de ses séries de livres-jeunesse sont adaptées en dessin animé : Hôtel Bordemer, Gudule et Les Enquêtes de Mirette.
+Elle publie son premier livre en 1984, alors qu'elle écrit déjà les sketches des spectacles de sa sœur Sylvie Joly.
+Elle a publié plus de 400 ouvrages, pour tous les âges. Ses livres sont traduits en 23 langues. Trois de ses séries de livres-jeunesse sont adaptées en dessin animé : Hôtel Bordemer, Gudule et Les Enquêtes de Mirette.
 </t>
         </is>
       </c>
@@ -513,14 +525,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fanny Joly est la huitième enfant d'un père officier de marine et d'une mère qui s'est mariée à dix-huit ans[4]. Elle est la sœur de l'actrice et humoriste Sylvie Joly[5] (pour qui elle a écrit de nombreux sketches), de Louis-Noël Joly (décédé), ancien haut cadre de la Société générale[6] et de Thierry Joly (décédé), dialoguiste des débuts de scènes de Dany Boon[7]. Elle est cousine du Dr Pascal Joly, l'époux d'Eva Joly[8].
-Fanny Joly a travaillé plus de vingt ans comme conceptrice-rédactrice dans la publicité. Tout en continuant, souvent avec la complicité de son frère Thierry, à écrire « pour rire ». Les sketchs se sont succédé[9]. Pour Sylvie mais aussi d'autres comédiens, alternant avec deux pièces de théâtre, des scénarios pour le cinéma ou la télévision[10]…
-Son premier livre de jeunesse est sorti en 1984. Elle en a publié plus de 400 depuis. Pour tous les âges : albums, premières lectures, romans pour adolescents[11]. Elle a reçu depuis une trentaine de prix littéraires, tous décernés par des jurys d'enfants[12].
-En 2006, elle publie son premier roman adulte : La vie comme Eva[13]. En 2008, un livre de nouvelles pour adultes : Crises de mères.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fanny Joly est la huitième enfant d'un père officier de marine et d'une mère qui s'est mariée à dix-huit ans. Elle est la sœur de l'actrice et humoriste Sylvie Joly (pour qui elle a écrit de nombreux sketches), de Louis-Noël Joly (décédé), ancien haut cadre de la Société générale et de Thierry Joly (décédé), dialoguiste des débuts de scènes de Dany Boon. Elle est cousine du Dr Pascal Joly, l'époux d'Eva Joly.
+Fanny Joly a travaillé plus de vingt ans comme conceptrice-rédactrice dans la publicité. Tout en continuant, souvent avec la complicité de son frère Thierry, à écrire « pour rire ». Les sketchs se sont succédé. Pour Sylvie mais aussi d'autres comédiens, alternant avec deux pièces de théâtre, des scénarios pour le cinéma ou la télévision…
+Son premier livre de jeunesse est sorti en 1984. Elle en a publié plus de 400 depuis. Pour tous les âges : albums, premières lectures, romans pour adolescents. Elle a reçu depuis une trentaine de prix littéraires, tous décernés par des jurys d'enfants.
+En 2006, elle publie son premier roman adulte : La vie comme Eva. En 2008, un livre de nouvelles pour adultes : Crises de mères.
 En 2017, pour pallier le problème croissant des livres indisponibles en papier, Fanny devient en outre éditeur-numérique afin de garder disponibles ses « épuisés-préférés ».
-En 2022 elle est nommée chevalier de l'ordre des Arts et des Lettres[14].
+En 2022 elle est nommée chevalier de l'ordre des Arts et des Lettres.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gudule, 12 titres
